--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tac1-Tacr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tac1-Tacr2.xlsx
@@ -549,10 +549,10 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.095413</v>
+        <v>0.123382</v>
       </c>
       <c r="N2">
-        <v>0.190826</v>
+        <v>0.246764</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1157496448633333</v>
+        <v>0.1496800507533333</v>
       </c>
       <c r="R2">
-        <v>0.69449786918</v>
+        <v>0.89808030452</v>
       </c>
       <c r="S2">
         <v>1</v>
